--- a/生活委员事宜/班费统计/班费情况.xlsx
+++ b/生活委员事宜/班费统计/班费情况.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yzh/Desktop/Note-of-seed-class/班费统计/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yzh/Desktop/Note-of-seed-class/生活委员事宜/班费统计/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>队名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,6 +416,32 @@
     <rPh sb="5" eb="6">
       <t>chong'zhi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三次种子论坛325元（人均11.61）</t>
+    <rPh sb="0" eb="1">
+      <t>di</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>san'ci</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhong'zi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lun'tan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ren'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹琪珺1人请假</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,10 +449,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,13 +513,6 @@
       <color theme="1"/>
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -541,11 +557,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -587,11 +602,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -872,7 +885,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -882,11 +895,11 @@
     <col min="6" max="6" width="54.1640625" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
     <col min="8" max="8" width="34.6640625" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="33.83203125" customWidth="1"/>
     <col min="10" max="10" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,8 +921,11 @@
       <c r="H1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>28</v>
       </c>
@@ -935,8 +951,12 @@
         <f>G2+100</f>
         <v>91.566000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <f xml:space="preserve"> H2-11.6</f>
+        <v>79.966000000000008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
@@ -960,8 +980,12 @@
         <f t="shared" ref="H3:H30" si="0">G3+100</f>
         <v>125.962</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <f t="shared" ref="I3:I30" si="1" xml:space="preserve"> H3-11.6</f>
+        <v>114.36200000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
@@ -985,8 +1009,12 @@
         <f t="shared" si="0"/>
         <v>91.566000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>79.966000000000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -1010,8 +1038,12 @@
         <f t="shared" si="0"/>
         <v>91.566000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>79.966000000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>29</v>
       </c>
@@ -1037,8 +1069,12 @@
         <f t="shared" si="0"/>
         <v>101.96599999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <f xml:space="preserve"> H6</f>
+        <v>101.96599999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -1062,8 +1098,12 @@
         <f t="shared" si="0"/>
         <v>91.566000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>79.966000000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -1087,8 +1127,12 @@
         <f t="shared" si="0"/>
         <v>91.566000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>79.966000000000008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -1112,8 +1156,12 @@
         <f t="shared" si="0"/>
         <v>91.566000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>79.966000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>30</v>
       </c>
@@ -1139,8 +1187,12 @@
         <f t="shared" si="0"/>
         <v>91.566000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>79.966000000000008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -1164,8 +1216,12 @@
         <f t="shared" si="0"/>
         <v>91.566000000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>79.966000000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
@@ -1189,8 +1245,12 @@
         <f t="shared" si="0"/>
         <v>91.566000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>79.966000000000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -1214,8 +1274,12 @@
         <f t="shared" si="0"/>
         <v>91.566000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>79.966000000000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>31</v>
       </c>
@@ -1241,8 +1305,12 @@
         <f t="shared" si="0"/>
         <v>91.566000000000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>79.966000000000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="1" t="s">
         <v>36</v>
@@ -1266,8 +1334,12 @@
         <f t="shared" si="0"/>
         <v>91.566000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>79.966000000000008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="1" t="s">
         <v>37</v>
@@ -1291,8 +1363,12 @@
         <f t="shared" si="0"/>
         <v>91.566000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>79.966000000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>32</v>
       </c>
@@ -1318,8 +1394,12 @@
         <f t="shared" si="0"/>
         <v>101.96599999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>90.366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
@@ -1343,9 +1423,12 @@
         <f t="shared" si="0"/>
         <v>125.962</v>
       </c>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>114.36200000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
@@ -1369,8 +1452,12 @@
         <f t="shared" si="0"/>
         <v>91.566000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>79.966000000000008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>33</v>
       </c>
@@ -1396,8 +1483,12 @@
         <f t="shared" si="0"/>
         <v>154.566</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>142.96600000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="1" t="s">
         <v>11</v>
@@ -1421,8 +1512,12 @@
         <f t="shared" si="0"/>
         <v>91.566000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>79.966000000000008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="1" t="s">
         <v>12</v>
@@ -1446,8 +1541,12 @@
         <f t="shared" si="0"/>
         <v>91.566000000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>79.966000000000008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="1" t="s">
         <v>26</v>
@@ -1471,8 +1570,12 @@
         <f t="shared" si="0"/>
         <v>91.566000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>79.966000000000008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>34</v>
       </c>
@@ -1498,8 +1601,12 @@
         <f t="shared" si="0"/>
         <v>101.96599999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>90.366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="1" t="s">
         <v>14</v>
@@ -1523,8 +1630,12 @@
         <f t="shared" si="0"/>
         <v>136.36199999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>124.762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="1" t="s">
         <v>15</v>
@@ -1548,8 +1659,12 @@
         <f t="shared" si="0"/>
         <v>125.962</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>114.36200000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="1" t="s">
         <v>16</v>
@@ -1573,8 +1688,12 @@
         <f t="shared" si="0"/>
         <v>125.962</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>114.36200000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>35</v>
       </c>
@@ -1600,8 +1719,12 @@
         <f t="shared" si="0"/>
         <v>91.566000000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>79.966000000000008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="1" t="s">
         <v>25</v>
@@ -1625,8 +1748,12 @@
         <f t="shared" si="0"/>
         <v>91.566000000000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>79.966000000000008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="1" t="s">
         <v>27</v>
@@ -1650,8 +1777,12 @@
         <f t="shared" si="0"/>
         <v>91.566000000000003</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>79.966000000000008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1676,8 +1807,12 @@
       <c r="H31">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1699,8 +1834,11 @@
       <c r="H33">
         <v>2969</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1712,6 +1850,9 @@
       </c>
       <c r="G34" t="s">
         <v>49</v>
+      </c>
+      <c r="I34" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/生活委员事宜/班费统计/班费情况.xlsx
+++ b/生活委员事宜/班费统计/班费情况.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>队名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,6 +442,25 @@
   </si>
   <si>
     <t>邹琪珺1人请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五次种子论坛193.9元（人均6.925）</t>
+    <rPh sb="0" eb="1">
+      <t>di'wu'ci</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhong'zi'lun'tun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lun'tan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ren'jun</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -896,10 +915,11 @@
     <col min="7" max="7" width="37.5" customWidth="1"/>
     <col min="8" max="8" width="34.6640625" customWidth="1"/>
     <col min="9" max="9" width="33.83203125" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="10" max="10" width="33" customWidth="1"/>
+    <col min="11" max="11" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -924,8 +944,11 @@
       <c r="I1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>28</v>
       </c>
@@ -955,8 +978,12 @@
         <f xml:space="preserve"> H2-11.6</f>
         <v>79.966000000000008</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <f xml:space="preserve"> I2-6.925</f>
+        <v>73.041000000000011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
@@ -981,11 +1008,15 @@
         <v>125.962</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I30" si="1" xml:space="preserve"> H3-11.6</f>
+        <f t="shared" ref="I3:J30" si="1" xml:space="preserve"> H3-11.6</f>
         <v>114.36200000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <f t="shared" ref="J3:J31" si="2" xml:space="preserve"> I3-6.925</f>
+        <v>107.43700000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
@@ -1013,8 +1044,12 @@
         <f t="shared" si="1"/>
         <v>79.966000000000008</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>73.041000000000011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -1042,8 +1077,12 @@
         <f t="shared" si="1"/>
         <v>79.966000000000008</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>73.041000000000011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>29</v>
       </c>
@@ -1073,8 +1112,12 @@
         <f xml:space="preserve"> H6</f>
         <v>101.96599999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>95.040999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -1102,8 +1145,12 @@
         <f t="shared" si="1"/>
         <v>79.966000000000008</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>73.041000000000011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -1131,8 +1178,12 @@
         <f t="shared" si="1"/>
         <v>79.966000000000008</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>73.041000000000011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -1160,8 +1211,12 @@
         <f t="shared" si="1"/>
         <v>79.966000000000008</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>73.041000000000011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>30</v>
       </c>
@@ -1191,8 +1246,12 @@
         <f t="shared" si="1"/>
         <v>79.966000000000008</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>73.041000000000011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -1220,8 +1279,12 @@
         <f t="shared" si="1"/>
         <v>79.966000000000008</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>73.041000000000011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
@@ -1249,8 +1312,12 @@
         <f t="shared" si="1"/>
         <v>79.966000000000008</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>73.041000000000011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -1278,8 +1345,11 @@
         <f t="shared" si="1"/>
         <v>79.966000000000008</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>79.965999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>31</v>
       </c>
@@ -1309,8 +1379,12 @@
         <f t="shared" si="1"/>
         <v>79.966000000000008</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>73.041000000000011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="1" t="s">
         <v>36</v>
@@ -1338,8 +1412,12 @@
         <f t="shared" si="1"/>
         <v>79.966000000000008</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>73.041000000000011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="1" t="s">
         <v>37</v>
@@ -1367,8 +1445,12 @@
         <f t="shared" si="1"/>
         <v>79.966000000000008</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>73.041000000000011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>32</v>
       </c>
@@ -1398,8 +1480,12 @@
         <f t="shared" si="1"/>
         <v>90.366</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>83.441000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
@@ -1427,8 +1513,12 @@
         <f t="shared" si="1"/>
         <v>114.36200000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>107.43700000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
@@ -1456,8 +1546,12 @@
         <f t="shared" si="1"/>
         <v>79.966000000000008</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>73.041000000000011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>33</v>
       </c>
@@ -1487,8 +1581,12 @@
         <f t="shared" si="1"/>
         <v>142.96600000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>136.041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="1" t="s">
         <v>11</v>
@@ -1516,8 +1614,12 @@
         <f t="shared" si="1"/>
         <v>79.966000000000008</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>73.041000000000011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="1" t="s">
         <v>12</v>
@@ -1545,8 +1647,12 @@
         <f t="shared" si="1"/>
         <v>79.966000000000008</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>73.041000000000011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="1" t="s">
         <v>26</v>
@@ -1574,8 +1680,12 @@
         <f t="shared" si="1"/>
         <v>79.966000000000008</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>73.041000000000011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>34</v>
       </c>
@@ -1605,8 +1715,12 @@
         <f t="shared" si="1"/>
         <v>90.366</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>83.441000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="1" t="s">
         <v>14</v>
@@ -1634,8 +1748,12 @@
         <f t="shared" si="1"/>
         <v>124.762</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>117.837</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="1" t="s">
         <v>15</v>
@@ -1663,8 +1781,12 @@
         <f t="shared" si="1"/>
         <v>114.36200000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>107.43700000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="1" t="s">
         <v>16</v>
@@ -1692,8 +1814,12 @@
         <f t="shared" si="1"/>
         <v>114.36200000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>107.43700000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>35</v>
       </c>
@@ -1723,8 +1849,12 @@
         <f t="shared" si="1"/>
         <v>79.966000000000008</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>73.041000000000011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="1" t="s">
         <v>25</v>
@@ -1752,8 +1882,12 @@
         <f t="shared" si="1"/>
         <v>79.966000000000008</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>73.041000000000011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="1" t="s">
         <v>27</v>
@@ -1781,8 +1915,12 @@
         <f t="shared" si="1"/>
         <v>79.966000000000008</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>73.041000000000011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -1810,9 +1948,12 @@
       <c r="I31">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1837,8 +1978,11 @@
       <c r="I33">
         <v>2644</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <v>2450.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>

--- a/生活委员事宜/班费统计/班费情况.xlsx
+++ b/生活委员事宜/班费统计/班费情况.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>队名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,6 +460,170 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>ren'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.6轰趴花费</t>
+    <rPh sb="4" eb="5">
+      <t>hong'pa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hua'fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰趴场馆</t>
+    <rPh sb="0" eb="1">
+      <t>hong'pa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chang'guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费</t>
+    <rPh sb="0" eb="1">
+      <t>dian'fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房</t>
+    <rPh sb="0" eb="1">
+      <t>chu'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰趴馆的零食</t>
+    <rPh sb="0" eb="1">
+      <t>hong'pa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ling'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵永辉买菜打车</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'yong'hui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mai'cai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>da'che</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾耀沛购买零食</t>
+    <rPh sb="0" eb="1">
+      <t>zeng'yao'pei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gou'mai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ling'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵欣然购买蔬菜</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'xin'ran</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gou'mai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu'cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢怡荣卖菜及零食</t>
+    <rPh sb="0" eb="1">
+      <t>xie'yi'rong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mai'cai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ling'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐嘉程鸡蛋和创可贴</t>
+    <rPh sb="3" eb="4">
+      <t>ji'dan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chuang'ke'tie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李泽霖买零食</t>
+    <rPh sb="0" eb="1">
+      <t>li'ze'lin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ling'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李雪扬购买食用油</t>
+    <rPh sb="0" eb="1">
+      <t>li'xue'yang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gou'mai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'yong'you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共</t>
+    <rPh sb="0" eb="1">
+      <t>zong'gong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖本成请假</t>
+    <rPh sb="3" eb="4">
+      <t>qing'jia</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -579,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -621,6 +785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -901,14 +1066,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="G23" zoomScale="211" zoomScaleNormal="211" zoomScalePageLayoutView="211" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
     <col min="4" max="4" width="22.83203125" customWidth="1"/>
     <col min="5" max="5" width="38.6640625" customWidth="1"/>
     <col min="6" max="6" width="54.1640625" customWidth="1"/>
@@ -1008,11 +1174,11 @@
         <v>125.962</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:J30" si="1" xml:space="preserve"> H3-11.6</f>
+        <f t="shared" ref="I3:I30" si="1" xml:space="preserve"> H3-11.6</f>
         <v>114.36200000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J31" si="2" xml:space="preserve"> I3-6.925</f>
+        <f t="shared" ref="J3:J30" si="2" xml:space="preserve"> I3-6.925</f>
         <v>107.43700000000001</v>
       </c>
     </row>
@@ -1338,7 +1504,7 @@
         <v>-8.4339999999999993</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f>G13+100</f>
         <v>91.566000000000003</v>
       </c>
       <c r="I13">
@@ -1997,6 +2163,111 @@
       </c>
       <c r="I34" t="s">
         <v>52</v>
+      </c>
+      <c r="J34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="17"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="17">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="17">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="17">
+        <v>624.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="17">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="17">
+        <v>1192.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="17">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="17">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="17">
+        <v>4042.3</v>
       </c>
     </row>
   </sheetData>

--- a/生活委员事宜/班费统计/班费情况.xlsx
+++ b/生活委员事宜/班费统计/班费情况.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>队名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -624,6 +624,34 @@
     <t>廖本成请假</t>
     <rPh sb="3" eb="4">
       <t>qing'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六次种子论坛（201.21+轰趴没报的车费22）人均7.7</t>
+    <rPh sb="0" eb="1">
+      <t>di'liu'ci</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhong'z</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lun'tan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>hong'pa</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>mei'bao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>de</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>che'fei</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ren'jun</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -743,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -779,13 +807,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1066,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G23" zoomScale="211" zoomScaleNormal="211" zoomScalePageLayoutView="211" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="127" zoomScaleNormal="127" zoomScalePageLayoutView="127" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1082,10 +1111,10 @@
     <col min="8" max="8" width="34.6640625" customWidth="1"/>
     <col min="9" max="9" width="33.83203125" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
-    <col min="11" max="11" width="22.5" customWidth="1"/>
+    <col min="11" max="11" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1113,9 +1142,12 @@
       <c r="J1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1148,9 +1180,13 @@
         <f xml:space="preserve"> I2-6.925</f>
         <v>73.041000000000011</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
+      <c r="K2">
+        <f xml:space="preserve"> J2-7.7</f>
+        <v>65.341000000000008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1181,9 +1217,13 @@
         <f t="shared" ref="J3:J30" si="2" xml:space="preserve"> I3-6.925</f>
         <v>107.43700000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="K3">
+        <f t="shared" ref="K3:K30" si="3" xml:space="preserve"> J3-7.7</f>
+        <v>99.737000000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1214,9 +1254,13 @@
         <f t="shared" si="2"/>
         <v>73.041000000000011</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>65.341000000000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1247,9 +1291,13 @@
         <f t="shared" si="2"/>
         <v>73.041000000000011</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>65.341000000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1282,9 +1330,13 @@
         <f t="shared" si="2"/>
         <v>95.040999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>87.340999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1315,9 +1367,13 @@
         <f t="shared" si="2"/>
         <v>73.041000000000011</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>65.341000000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1348,9 +1404,13 @@
         <f t="shared" si="2"/>
         <v>73.041000000000011</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>65.341000000000008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1381,9 +1441,13 @@
         <f t="shared" si="2"/>
         <v>73.041000000000011</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>65.341000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1416,9 +1480,13 @@
         <f t="shared" si="2"/>
         <v>73.041000000000011</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>65.341000000000008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1449,9 +1517,13 @@
         <f t="shared" si="2"/>
         <v>73.041000000000011</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>65.341000000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1482,9 +1554,13 @@
         <f t="shared" si="2"/>
         <v>73.041000000000011</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>65.341000000000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1514,9 +1590,13 @@
       <c r="J13">
         <v>79.965999999999994</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>72.265999999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1549,9 +1629,13 @@
         <f t="shared" si="2"/>
         <v>73.041000000000011</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>65.341000000000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1582,9 +1666,13 @@
         <f t="shared" si="2"/>
         <v>73.041000000000011</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>65.341000000000008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1615,9 +1703,13 @@
         <f t="shared" si="2"/>
         <v>73.041000000000011</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>65.341000000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1650,9 +1742,13 @@
         <f t="shared" si="2"/>
         <v>83.441000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>75.741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1683,9 +1779,13 @@
         <f t="shared" si="2"/>
         <v>107.43700000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>99.737000000000009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1716,9 +1816,13 @@
         <f t="shared" si="2"/>
         <v>73.041000000000011</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>65.341000000000008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1751,9 +1855,13 @@
         <f t="shared" si="2"/>
         <v>136.041</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>128.34100000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1784,9 +1892,13 @@
         <f t="shared" si="2"/>
         <v>73.041000000000011</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>65.341000000000008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1817,9 +1929,13 @@
         <f t="shared" si="2"/>
         <v>73.041000000000011</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>65.341000000000008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
       <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1850,9 +1966,13 @@
         <f t="shared" si="2"/>
         <v>73.041000000000011</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>65.341000000000008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1885,9 +2005,13 @@
         <f t="shared" si="2"/>
         <v>83.441000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>75.741</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
       <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1918,9 +2042,13 @@
         <f t="shared" si="2"/>
         <v>117.837</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>110.137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
       <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
@@ -1951,9 +2079,13 @@
         <f t="shared" si="2"/>
         <v>107.43700000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>99.737000000000009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
       <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1984,9 +2116,13 @@
         <f t="shared" si="2"/>
         <v>107.43700000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>99.737000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2019,9 +2155,13 @@
         <f t="shared" si="2"/>
         <v>73.041000000000011</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>65.341000000000008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
       <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
@@ -2052,9 +2192,13 @@
         <f t="shared" si="2"/>
         <v>73.041000000000011</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>65.341000000000008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
@@ -2085,8 +2229,12 @@
         <f t="shared" si="2"/>
         <v>73.041000000000011</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>65.341000000000008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2117,9 +2265,12 @@
       <c r="J31">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -2147,8 +2298,11 @@
       <c r="J33">
         <v>2450.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="18">
+        <v>2226.9940000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2168,105 +2322,105 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D39" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="17"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D40" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="17">
+      <c r="E40" s="15">
         <v>1800</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D41" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="17">
+      <c r="E41" s="15">
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D42" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="17">
+      <c r="E42" s="15">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="17">
+      <c r="E43" s="15">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D44" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="17">
+      <c r="E44" s="15">
         <v>624.6</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D45" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="17">
+      <c r="E45" s="15">
         <v>14.6</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D46" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="17">
+      <c r="E46" s="15">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D47" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="17">
+      <c r="E47" s="15">
         <v>1192.2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D48" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="17">
+      <c r="E48" s="15">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="s">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D49" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="17">
+      <c r="E49" s="15">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D50" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="17">
+      <c r="E50" s="15">
         <v>13.9</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="17" t="s">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D51" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="17">
+      <c r="E51" s="15">
         <v>4042.3</v>
       </c>
     </row>

--- a/生活委员事宜/班费统计/班费情况.xlsx
+++ b/生活委员事宜/班费统计/班费情况.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
   <si>
     <t>队名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -725,12 +725,18 @@
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -771,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -808,13 +814,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1095,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="127" zoomScaleNormal="127" zoomScalePageLayoutView="127" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="127" zoomScaleNormal="127" zoomScalePageLayoutView="127" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1147,7 +1154,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1186,7 +1193,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1223,7 +1230,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1260,7 +1267,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1297,7 +1304,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1336,7 +1343,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1373,7 +1380,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1410,7 +1417,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1447,7 +1454,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1486,7 +1493,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1523,7 +1530,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1560,7 +1567,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1596,7 +1603,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1635,7 +1642,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1672,7 +1679,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1709,7 +1716,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1748,7 +1755,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1785,7 +1792,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1822,7 +1829,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1861,7 +1868,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1898,7 +1905,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1935,7 +1942,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1972,7 +1979,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2011,7 +2018,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
@@ -2048,7 +2055,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
@@ -2085,7 +2092,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
@@ -2122,7 +2129,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2161,7 +2168,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
@@ -2198,7 +2205,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
@@ -2298,7 +2305,7 @@
       <c r="J33">
         <v>2450.1</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="16">
         <v>2226.9940000000001</v>
       </c>
     </row>
@@ -2423,6 +2430,177 @@
       <c r="E51" s="15">
         <v>4042.3</v>
       </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="19"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="19"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="19"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="19"/>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="19"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="19"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="19"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="19"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="19"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="19"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="19"/>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C88" s="19"/>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="19"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="19"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="19"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="19"/>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="19"/>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="19"/>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" s="19"/>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="19"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="19"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="19"/>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="19"/>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="19"/>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="19"/>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/生活委员事宜/班费统计/班费情况.xlsx
+++ b/生活委员事宜/班费统计/班费情况.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
   <si>
     <t>队名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -651,6 +651,13 @@
       <t>che'fei</t>
     </rPh>
     <rPh sb="25" eb="26">
+      <t>ren'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七次种子论坛（243.85） 人均8.409</t>
+    <rPh sb="16" eb="17">
       <t>ren'jun</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -725,7 +732,7 @@
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,6 +742,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -815,13 +834,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1102,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="127" zoomScaleNormal="127" zoomScalePageLayoutView="127" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="127" zoomScaleNormal="127" zoomScalePageLayoutView="127" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1118,10 +1139,11 @@
     <col min="8" max="8" width="34.6640625" customWidth="1"/>
     <col min="9" max="9" width="33.83203125" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
-    <col min="11" max="11" width="38.1640625" customWidth="1"/>
+    <col min="11" max="11" width="46" customWidth="1"/>
+    <col min="12" max="12" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,9 +1174,12 @@
       <c r="K1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1191,9 +1216,13 @@
         <f xml:space="preserve"> J2-7.7</f>
         <v>65.341000000000008</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
+      <c r="L2">
+        <f xml:space="preserve"> K2-8.409</f>
+        <v>56.932000000000009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
@@ -1228,9 +1257,13 @@
         <f t="shared" ref="K3:K30" si="3" xml:space="preserve"> J3-7.7</f>
         <v>99.737000000000009</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="L3">
+        <f t="shared" ref="L3:L30" si="4" xml:space="preserve"> K3-8.409</f>
+        <v>91.328000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1265,9 +1298,13 @@
         <f t="shared" si="3"/>
         <v>65.341000000000008</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>56.932000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1302,9 +1339,13 @@
         <f t="shared" si="3"/>
         <v>65.341000000000008</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>56.932000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1341,9 +1382,13 @@
         <f t="shared" si="3"/>
         <v>87.340999999999994</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>78.931999999999988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1378,9 +1423,13 @@
         <f t="shared" si="3"/>
         <v>65.341000000000008</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>56.932000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1415,9 +1464,13 @@
         <f t="shared" si="3"/>
         <v>65.341000000000008</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>56.932000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,9 +1505,13 @@
         <f t="shared" si="3"/>
         <v>65.341000000000008</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>56.932000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1491,9 +1548,13 @@
         <f t="shared" si="3"/>
         <v>65.341000000000008</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>56.932000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1528,9 +1589,13 @@
         <f t="shared" si="3"/>
         <v>65.341000000000008</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>56.932000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1565,9 +1630,13 @@
         <f t="shared" si="3"/>
         <v>65.341000000000008</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>56.932000000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1601,9 +1670,13 @@
         <f t="shared" si="3"/>
         <v>72.265999999999991</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>63.856999999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1640,9 +1713,13 @@
         <f t="shared" si="3"/>
         <v>65.341000000000008</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>56.932000000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1677,9 +1754,13 @@
         <f t="shared" si="3"/>
         <v>65.341000000000008</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>56.932000000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1714,9 +1795,13 @@
         <f t="shared" si="3"/>
         <v>65.341000000000008</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>56.932000000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1753,9 +1838,13 @@
         <f t="shared" si="3"/>
         <v>75.741</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>67.331999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1790,9 +1879,13 @@
         <f t="shared" si="3"/>
         <v>99.737000000000009</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>91.328000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
@@ -1827,9 +1920,13 @@
         <f t="shared" si="3"/>
         <v>65.341000000000008</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>56.932000000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1866,9 +1963,13 @@
         <f t="shared" si="3"/>
         <v>128.34100000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>119.932</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1903,9 +2004,13 @@
         <f t="shared" si="3"/>
         <v>65.341000000000008</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>56.932000000000009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1940,9 +2045,13 @@
         <f t="shared" si="3"/>
         <v>65.341000000000008</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>56.932000000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20"/>
       <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1977,9 +2086,13 @@
         <f t="shared" si="3"/>
         <v>65.341000000000008</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>56.932000000000009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2016,9 +2129,13 @@
         <f t="shared" si="3"/>
         <v>75.741</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>67.331999999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20"/>
       <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
@@ -2053,9 +2170,13 @@
         <f t="shared" si="3"/>
         <v>110.137</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>101.72799999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="20"/>
       <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
@@ -2090,9 +2211,13 @@
         <f t="shared" si="3"/>
         <v>99.737000000000009</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>91.328000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20"/>
       <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
@@ -2127,9 +2252,13 @@
         <f t="shared" si="3"/>
         <v>99.737000000000009</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>91.328000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2166,9 +2295,13 @@
         <f t="shared" si="3"/>
         <v>65.341000000000008</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>56.932000000000009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="20"/>
       <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
@@ -2203,9 +2336,13 @@
         <f t="shared" si="3"/>
         <v>65.341000000000008</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>56.932000000000009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="20"/>
       <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
@@ -2240,8 +2377,12 @@
         <f t="shared" si="3"/>
         <v>65.341000000000008</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>56.932000000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2275,9 +2416,12 @@
       <c r="K31">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -2308,8 +2452,11 @@
       <c r="K33" s="16">
         <v>2226.9940000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L33" s="16">
+        <v>1983.133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2329,13 +2476,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D39" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D40" s="15" t="s">
         <v>55</v>
       </c>
@@ -2343,7 +2490,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D41" s="15" t="s">
         <v>56</v>
       </c>
@@ -2351,7 +2498,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D42" s="15" t="s">
         <v>57</v>
       </c>
@@ -2359,7 +2506,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D43" s="15" t="s">
         <v>58</v>
       </c>
@@ -2367,7 +2514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D44" s="15" t="s">
         <v>60</v>
       </c>
@@ -2375,7 +2522,7 @@
         <v>624.6</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D45" s="15" t="s">
         <v>59</v>
       </c>
@@ -2383,7 +2530,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D46" s="15" t="s">
         <v>61</v>
       </c>
@@ -2391,7 +2538,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D47" s="15" t="s">
         <v>62</v>
       </c>
@@ -2399,7 +2546,7 @@
         <v>1192.2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D48" s="15" t="s">
         <v>63</v>
       </c>
@@ -2431,176 +2578,292 @@
         <v>4042.3</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="19"/>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C74" s="17"/>
+      <c r="E74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="17"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C75" s="19"/>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="17"/>
+      <c r="E75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="17"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="19"/>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C76" s="17"/>
+      <c r="E76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="19"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="19"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="19"/>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="17"/>
+      <c r="E78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="17"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C79" s="19"/>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C79" s="17"/>
+      <c r="E79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" s="17"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" s="18"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="19"/>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C81" s="17"/>
+      <c r="E81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81" s="17"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="19"/>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C82" s="17"/>
+      <c r="E82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="17"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="19"/>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C83" s="17"/>
+      <c r="E83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="17"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="19"/>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="17"/>
+      <c r="E84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="17"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="19"/>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C85" s="17"/>
+      <c r="E85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="18"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="19"/>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="17"/>
+      <c r="E86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="18"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E87" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F87" s="19"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C88" s="19"/>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C88" s="17"/>
+      <c r="E88" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F88" s="17"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="19"/>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C89" s="17"/>
+      <c r="E89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="17"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="19"/>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="17"/>
+      <c r="E90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="18"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="19"/>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C91" s="17"/>
+      <c r="E91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="17"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="19"/>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="17"/>
+      <c r="E92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="19"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C93" s="19"/>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C93" s="17"/>
+      <c r="E93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="18"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C94" s="19"/>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C94" s="17"/>
+      <c r="E94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="19"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C95" s="19"/>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C95" s="17"/>
+      <c r="E95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F95" s="19"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C96" s="19"/>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C96" s="17"/>
+      <c r="E96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="18"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C97" s="19"/>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="17"/>
+      <c r="E97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="17"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C98" s="19"/>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C98" s="17"/>
+      <c r="E98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="18"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C99" s="19"/>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="17"/>
+      <c r="E99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" s="19"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="19"/>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C100" s="17"/>
+      <c r="E100" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" s="19"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="19"/>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C101" s="17"/>
+      <c r="E101" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" s="19"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C102" s="19"/>
+      <c r="C102" s="17"/>
+      <c r="E102" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F102" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/生活委员事宜/班费统计/班费情况.xlsx
+++ b/生活委员事宜/班费统计/班费情况.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
   <si>
     <t>队名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -659,6 +659,126 @@
     <t>第七次种子论坛（243.85） 人均8.409</t>
     <rPh sb="16" eb="17">
       <t>ren'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年终茶话会开销</t>
+    <rPh sb="0" eb="1">
+      <t>nian'zhong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cha</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kai'xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次买的灯</t>
+    <rPh sb="0" eb="1">
+      <t>di'yi'ci</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌裙</t>
+  </si>
+  <si>
+    <t>第二次买的灯 + 运费30</t>
+    <rPh sb="0" eb="1">
+      <t>di'er'ci</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yun'fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯的电池</t>
+    <rPh sb="0" eb="1">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>de</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian'chi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年终茶话会花费631.2，获得第一赢得奖金500，导演组报销300，结余168.8</t>
+    <rPh sb="0" eb="1">
+      <t>nian'zhong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cha'hua'hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hua'fei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>huo'de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>di'yi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ying'de</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jiang'jin</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>dao'yan'zu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>bao'xiao</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>jie'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个假发和头套</t>
+    <rPh sb="0" eb="1">
+      <t>liang'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'fa</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tou'tao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1123,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="127" zoomScaleNormal="127" zoomScalePageLayoutView="127" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="I29" zoomScale="127" zoomScaleNormal="127" zoomScalePageLayoutView="127" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1141,9 +1261,10 @@
     <col min="10" max="10" width="33" customWidth="1"/>
     <col min="11" max="11" width="46" customWidth="1"/>
     <col min="12" max="12" width="43.1640625" customWidth="1"/>
+    <col min="13" max="13" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1177,8 +1298,11 @@
       <c r="L1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>28</v>
       </c>
@@ -1220,8 +1344,12 @@
         <f xml:space="preserve"> K2-8.409</f>
         <v>56.932000000000009</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <f xml:space="preserve"> L2+5.82</f>
+        <v>62.75200000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
@@ -1261,8 +1389,12 @@
         <f t="shared" ref="L3:L30" si="4" xml:space="preserve"> K3-8.409</f>
         <v>91.328000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <f t="shared" ref="M3:M30" si="5" xml:space="preserve"> L3+5.82</f>
+        <v>97.147999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
@@ -1302,8 +1434,12 @@
         <f t="shared" si="4"/>
         <v>56.932000000000009</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <f t="shared" si="5"/>
+        <v>62.75200000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -1343,8 +1479,12 @@
         <f t="shared" si="4"/>
         <v>56.932000000000009</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>62.75200000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>29</v>
       </c>
@@ -1386,8 +1526,12 @@
         <f t="shared" si="4"/>
         <v>78.931999999999988</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>84.751999999999981</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -1427,8 +1571,12 @@
         <f t="shared" si="4"/>
         <v>56.932000000000009</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>62.75200000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -1468,8 +1616,12 @@
         <f t="shared" si="4"/>
         <v>56.932000000000009</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>62.75200000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -1509,8 +1661,12 @@
         <f t="shared" si="4"/>
         <v>56.932000000000009</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>62.75200000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>30</v>
       </c>
@@ -1552,8 +1708,12 @@
         <f t="shared" si="4"/>
         <v>56.932000000000009</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>62.75200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -1593,8 +1753,12 @@
         <f t="shared" si="4"/>
         <v>56.932000000000009</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>62.75200000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
@@ -1634,8 +1798,12 @@
         <f t="shared" si="4"/>
         <v>56.932000000000009</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>62.75200000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -1674,8 +1842,12 @@
         <f t="shared" si="4"/>
         <v>63.856999999999992</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>69.676999999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>31</v>
       </c>
@@ -1717,8 +1889,12 @@
         <f t="shared" si="4"/>
         <v>56.932000000000009</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>62.75200000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="1" t="s">
         <v>36</v>
@@ -1758,8 +1934,12 @@
         <f t="shared" si="4"/>
         <v>56.932000000000009</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>62.75200000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="1" t="s">
         <v>37</v>
@@ -1799,8 +1979,12 @@
         <f t="shared" si="4"/>
         <v>56.932000000000009</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>62.75200000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>32</v>
       </c>
@@ -1842,8 +2026,12 @@
         <f t="shared" si="4"/>
         <v>67.331999999999994</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>73.151999999999987</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
@@ -1883,8 +2071,12 @@
         <f t="shared" si="4"/>
         <v>91.328000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>97.147999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
@@ -1924,8 +2116,12 @@
         <f t="shared" si="4"/>
         <v>56.932000000000009</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>62.75200000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2163,12 @@
         <f t="shared" si="4"/>
         <v>119.932</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>125.75200000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="1" t="s">
         <v>11</v>
@@ -2008,8 +2208,12 @@
         <f t="shared" si="4"/>
         <v>56.932000000000009</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>62.75200000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="1" t="s">
         <v>12</v>
@@ -2049,8 +2253,12 @@
         <f t="shared" si="4"/>
         <v>56.932000000000009</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>62.75200000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="1" t="s">
         <v>26</v>
@@ -2090,8 +2298,12 @@
         <f t="shared" si="4"/>
         <v>56.932000000000009</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>62.75200000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>34</v>
       </c>
@@ -2133,8 +2345,12 @@
         <f t="shared" si="4"/>
         <v>67.331999999999994</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>73.151999999999987</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="1" t="s">
         <v>14</v>
@@ -2174,8 +2390,12 @@
         <f t="shared" si="4"/>
         <v>101.72799999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>107.548</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="1" t="s">
         <v>15</v>
@@ -2215,8 +2435,12 @@
         <f t="shared" si="4"/>
         <v>91.328000000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>97.147999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="1" t="s">
         <v>16</v>
@@ -2256,8 +2480,12 @@
         <f t="shared" si="4"/>
         <v>91.328000000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>97.147999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>35</v>
       </c>
@@ -2299,8 +2527,12 @@
         <f t="shared" si="4"/>
         <v>56.932000000000009</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>62.75200000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="1" t="s">
         <v>25</v>
@@ -2340,8 +2572,12 @@
         <f t="shared" si="4"/>
         <v>56.932000000000009</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>62.75200000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="1" t="s">
         <v>27</v>
@@ -2381,8 +2617,12 @@
         <f t="shared" si="4"/>
         <v>56.932000000000009</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>62.75200000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2419,9 +2659,12 @@
       <c r="L31">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -2455,8 +2698,11 @@
       <c r="L33" s="16">
         <v>1983.133</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M33" s="16">
+        <v>2151.8000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2476,13 +2722,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D39" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D40" s="15" t="s">
         <v>55</v>
       </c>
@@ -2490,55 +2736,88 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D41" s="15" t="s">
         <v>56</v>
       </c>
       <c r="E41" s="15">
         <v>153</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D42" s="15" t="s">
         <v>57</v>
       </c>
       <c r="E42" s="15">
         <v>80</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L42" t="s">
+        <v>76</v>
+      </c>
+      <c r="M42">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D43" s="15" t="s">
         <v>58</v>
       </c>
       <c r="E43" s="15">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L43" t="s">
+        <v>72</v>
+      </c>
+      <c r="M43">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D44" s="15" t="s">
         <v>60</v>
       </c>
       <c r="E44" s="15">
         <v>624.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L44" t="s">
+        <v>71</v>
+      </c>
+      <c r="M44">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D45" s="15" t="s">
         <v>59</v>
       </c>
       <c r="E45" s="15">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L45" t="s">
+        <v>73</v>
+      </c>
+      <c r="M45">
+        <v>118.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D46" s="15" t="s">
         <v>61</v>
       </c>
       <c r="E46" s="15">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L46" t="s">
+        <v>74</v>
+      </c>
+      <c r="M46">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D47" s="15" t="s">
         <v>62</v>
       </c>
@@ -2546,7 +2825,7 @@
         <v>1192.2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D48" s="15" t="s">
         <v>63</v>
       </c>

--- a/生活委员事宜/班费统计/班费情况.xlsx
+++ b/生活委员事宜/班费统计/班费情况.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19660"/>
+    <workbookView xWindow="-760" yWindow="460" windowWidth="38400" windowHeight="19660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
   <si>
     <t>队名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -779,6 +779,31 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>tou'tao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导演组未报销300 + 第八次种子论坛82，人均</t>
+    <rPh sb="0" eb="1">
+      <t>dao'yan'zu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'xiao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>di'ba'ci</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zhong'zi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>lun'tan</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ren'jun</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1243,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I29" zoomScale="127" zoomScaleNormal="127" zoomScalePageLayoutView="127" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="127" zoomScaleNormal="127" zoomScalePageLayoutView="127" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1261,10 +1286,11 @@
     <col min="10" max="10" width="33" customWidth="1"/>
     <col min="11" max="11" width="46" customWidth="1"/>
     <col min="12" max="12" width="43.1640625" customWidth="1"/>
-    <col min="13" max="13" width="35" customWidth="1"/>
+    <col min="13" max="13" width="68.33203125" customWidth="1"/>
+    <col min="14" max="14" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1301,8 +1327,11 @@
       <c r="M1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>28</v>
       </c>
@@ -1348,8 +1377,12 @@
         <f xml:space="preserve"> L2+5.82</f>
         <v>62.75200000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <f>M2-13.17</f>
+        <v>49.582000000000008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
@@ -1393,8 +1426,12 @@
         <f t="shared" ref="M3:M30" si="5" xml:space="preserve"> L3+5.82</f>
         <v>97.147999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <f t="shared" ref="N3:N30" si="6">M3-13.17</f>
+        <v>83.977999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
@@ -1438,8 +1475,12 @@
         <f t="shared" si="5"/>
         <v>62.75200000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <f t="shared" si="6"/>
+        <v>49.582000000000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -1483,8 +1524,12 @@
         <f t="shared" si="5"/>
         <v>62.75200000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <f t="shared" si="6"/>
+        <v>49.582000000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>29</v>
       </c>
@@ -1530,8 +1575,12 @@
         <f t="shared" si="5"/>
         <v>84.751999999999981</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>71.581999999999979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -1575,8 +1624,12 @@
         <f t="shared" si="5"/>
         <v>62.75200000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>49.582000000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -1620,8 +1673,12 @@
         <f t="shared" si="5"/>
         <v>62.75200000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>49.582000000000008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -1665,8 +1722,12 @@
         <f t="shared" si="5"/>
         <v>62.75200000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>49.582000000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>30</v>
       </c>
@@ -1712,8 +1773,12 @@
         <f t="shared" si="5"/>
         <v>62.75200000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>49.582000000000008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -1757,8 +1822,12 @@
         <f t="shared" si="5"/>
         <v>62.75200000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>49.582000000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
@@ -1802,8 +1871,12 @@
         <f t="shared" si="5"/>
         <v>62.75200000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>49.582000000000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -1846,8 +1919,12 @@
         <f t="shared" si="5"/>
         <v>69.676999999999992</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>56.506999999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>31</v>
       </c>
@@ -1893,8 +1970,12 @@
         <f t="shared" si="5"/>
         <v>62.75200000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>49.582000000000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="1" t="s">
         <v>36</v>
@@ -1938,8 +2019,12 @@
         <f t="shared" si="5"/>
         <v>62.75200000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>49.582000000000008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="1" t="s">
         <v>37</v>
@@ -1983,8 +2068,12 @@
         <f t="shared" si="5"/>
         <v>62.75200000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>49.582000000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>32</v>
       </c>
@@ -2030,8 +2119,12 @@
         <f t="shared" si="5"/>
         <v>73.151999999999987</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>59.981999999999985</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
@@ -2075,8 +2168,12 @@
         <f t="shared" si="5"/>
         <v>97.147999999999996</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <f t="shared" si="6"/>
+        <v>83.977999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
@@ -2120,8 +2217,12 @@
         <f t="shared" si="5"/>
         <v>62.75200000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>49.582000000000008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
@@ -2167,8 +2268,12 @@
         <f t="shared" si="5"/>
         <v>125.75200000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>112.58200000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="1" t="s">
         <v>11</v>
@@ -2212,8 +2317,12 @@
         <f t="shared" si="5"/>
         <v>62.75200000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>49.582000000000008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="1" t="s">
         <v>12</v>
@@ -2257,8 +2366,12 @@
         <f t="shared" si="5"/>
         <v>62.75200000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>49.582000000000008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="1" t="s">
         <v>26</v>
@@ -2302,8 +2415,12 @@
         <f t="shared" si="5"/>
         <v>62.75200000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>49.582000000000008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>34</v>
       </c>
@@ -2349,8 +2466,12 @@
         <f t="shared" si="5"/>
         <v>73.151999999999987</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>59.981999999999985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="1" t="s">
         <v>14</v>
@@ -2394,8 +2515,12 @@
         <f t="shared" si="5"/>
         <v>107.548</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>94.378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="1" t="s">
         <v>15</v>
@@ -2439,8 +2564,12 @@
         <f t="shared" si="5"/>
         <v>97.147999999999996</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>83.977999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="1" t="s">
         <v>16</v>
@@ -2484,8 +2613,12 @@
         <f t="shared" si="5"/>
         <v>97.147999999999996</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <f t="shared" si="6"/>
+        <v>83.977999999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>35</v>
       </c>
@@ -2531,8 +2664,12 @@
         <f t="shared" si="5"/>
         <v>62.75200000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <f t="shared" si="6"/>
+        <v>49.582000000000008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="1" t="s">
         <v>25</v>
@@ -2576,8 +2713,12 @@
         <f t="shared" si="5"/>
         <v>62.75200000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <f t="shared" si="6"/>
+        <v>49.582000000000008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="1" t="s">
         <v>27</v>
@@ -2621,8 +2762,12 @@
         <f t="shared" si="5"/>
         <v>62.75200000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <f t="shared" si="6"/>
+        <v>49.582000000000008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2662,9 +2807,12 @@
       <c r="M31">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -2701,8 +2849,11 @@
       <c r="M33" s="16">
         <v>2151.8000000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N33" s="16">
+        <v>1769.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2722,13 +2873,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D39" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D40" s="15" t="s">
         <v>55</v>
       </c>
@@ -2736,7 +2887,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D41" s="15" t="s">
         <v>56</v>
       </c>
@@ -2747,7 +2898,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D42" s="15" t="s">
         <v>57</v>
       </c>
@@ -2761,7 +2912,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D43" s="15" t="s">
         <v>58</v>
       </c>
@@ -2775,7 +2926,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D44" s="15" t="s">
         <v>60</v>
       </c>
@@ -2789,7 +2940,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D45" s="15" t="s">
         <v>59</v>
       </c>
@@ -2803,7 +2954,7 @@
         <v>118.2</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D46" s="15" t="s">
         <v>61</v>
       </c>
@@ -2817,7 +2968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D47" s="15" t="s">
         <v>62</v>
       </c>
@@ -2825,7 +2976,7 @@
         <v>1192.2</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D48" s="15" t="s">
         <v>63</v>
       </c>

--- a/生活委员事宜/班费统计/班费情况.xlsx
+++ b/生活委员事宜/班费统计/班费情况.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-760" yWindow="460" windowWidth="38400" windowHeight="19660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
   <si>
     <t>队名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -803,6 +803,79 @@
       <t>lun'tan</t>
     </rPh>
     <rPh sb="22" eb="23">
+      <t>ren'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十次种子论坛425.09（人均14.658）</t>
+    <rPh sb="0" eb="1">
+      <t>di'si'ci</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhong'z</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lun'tan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ren'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵永辉，季慧，泥俊沛请假</t>
+    <rPh sb="0" eb="1">
+      <t>zhao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji'hui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ni'jun'pei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>qing'jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我家厨房班聚1363，人均52.43</t>
+    <rPh sb="0" eb="1">
+      <t>wo'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chu'fang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ban'ju</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ren'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱园零食154.64，人均5.33</t>
+    <rPh sb="0" eb="1">
+      <t>ying'yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ling'shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
       <t>ren'jun</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1268,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="127" zoomScaleNormal="127" zoomScalePageLayoutView="127" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1287,10 +1360,14 @@
     <col min="11" max="11" width="46" customWidth="1"/>
     <col min="12" max="12" width="43.1640625" customWidth="1"/>
     <col min="13" max="13" width="68.33203125" customWidth="1"/>
-    <col min="14" max="14" width="38.83203125" customWidth="1"/>
+    <col min="14" max="14" width="47" customWidth="1"/>
+    <col min="15" max="15" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.1640625" customWidth="1"/>
+    <col min="17" max="17" width="26.33203125" customWidth="1"/>
+    <col min="18" max="18" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1330,8 +1407,17 @@
       <c r="N1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>28</v>
       </c>
@@ -1381,8 +1467,20 @@
         <f>M2-13.17</f>
         <v>49.582000000000008</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <f>N2-14.658</f>
+        <v>34.924000000000007</v>
+      </c>
+      <c r="P2">
+        <f>O2-52.43</f>
+        <v>-17.505999999999993</v>
+      </c>
+      <c r="Q2">
+        <f>P2-5.33</f>
+        <v>-22.835999999999991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
@@ -1430,8 +1528,20 @@
         <f t="shared" ref="N3:N30" si="6">M3-13.17</f>
         <v>83.977999999999994</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <f t="shared" ref="O3:O30" si="7">N3-14.658</f>
+        <v>69.319999999999993</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P30" si="8">O3-52.43</f>
+        <v>16.889999999999993</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q30" si="9">P3-5.33</f>
+        <v>11.559999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
@@ -1479,8 +1589,20 @@
         <f t="shared" si="6"/>
         <v>49.582000000000008</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <f t="shared" si="7"/>
+        <v>34.924000000000007</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="8"/>
+        <v>-17.505999999999993</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="9"/>
+        <v>-22.835999999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -1528,8 +1650,20 @@
         <f t="shared" si="6"/>
         <v>49.582000000000008</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <f t="shared" si="7"/>
+        <v>34.924000000000007</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="8"/>
+        <v>-17.505999999999993</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="9"/>
+        <v>-22.835999999999991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>29</v>
       </c>
@@ -1579,8 +1713,20 @@
         <f t="shared" si="6"/>
         <v>71.581999999999979</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <f t="shared" si="7"/>
+        <v>56.923999999999978</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="8"/>
+        <v>4.4939999999999785</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="9"/>
+        <v>-0.83600000000002161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -1628,8 +1774,20 @@
         <f t="shared" si="6"/>
         <v>49.582000000000008</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>34.924000000000007</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="8"/>
+        <v>-17.505999999999993</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="9"/>
+        <v>-22.835999999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -1677,8 +1835,20 @@
         <f t="shared" si="6"/>
         <v>49.582000000000008</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>34.924000000000007</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="8"/>
+        <v>-17.505999999999993</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="9"/>
+        <v>-22.835999999999991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -1726,8 +1896,20 @@
         <f t="shared" si="6"/>
         <v>49.582000000000008</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <f t="shared" si="7"/>
+        <v>34.924000000000007</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="8"/>
+        <v>-17.505999999999993</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="9"/>
+        <v>-22.835999999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>30</v>
       </c>
@@ -1777,8 +1959,20 @@
         <f t="shared" si="6"/>
         <v>49.582000000000008</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>34.924000000000007</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="8"/>
+        <v>-17.505999999999993</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="9"/>
+        <v>-22.835999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -1826,8 +2020,20 @@
         <f t="shared" si="6"/>
         <v>49.582000000000008</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <f t="shared" si="7"/>
+        <v>34.924000000000007</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="8"/>
+        <v>-17.505999999999993</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="9"/>
+        <v>-22.835999999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
@@ -1875,8 +2081,20 @@
         <f t="shared" si="6"/>
         <v>49.582000000000008</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>34.924000000000007</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="8"/>
+        <v>-17.505999999999993</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="9"/>
+        <v>-22.835999999999991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -1923,8 +2141,20 @@
         <f t="shared" si="6"/>
         <v>56.506999999999991</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>41.84899999999999</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="8"/>
+        <v>-10.58100000000001</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="9"/>
+        <v>-15.91100000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>31</v>
       </c>
@@ -1974,8 +2204,19 @@
         <f t="shared" si="6"/>
         <v>49.582000000000008</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>34.924000000000007</v>
+      </c>
+      <c r="P14">
+        <v>34.923999999999999</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="9"/>
+        <v>29.594000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="1" t="s">
         <v>36</v>
@@ -2023,8 +2264,20 @@
         <f t="shared" si="6"/>
         <v>49.582000000000008</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>34.924000000000007</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>-17.505999999999993</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="9"/>
+        <v>-22.835999999999991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="1" t="s">
         <v>37</v>
@@ -2072,8 +2325,20 @@
         <f t="shared" si="6"/>
         <v>49.582000000000008</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>34.924000000000007</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="8"/>
+        <v>-17.505999999999993</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="9"/>
+        <v>-22.835999999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>32</v>
       </c>
@@ -2123,8 +2388,20 @@
         <f t="shared" si="6"/>
         <v>59.981999999999985</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>45.323999999999984</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>-7.1060000000000159</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="9"/>
+        <v>-12.436000000000016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
@@ -2172,8 +2449,20 @@
         <f t="shared" si="6"/>
         <v>83.977999999999994</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>69.319999999999993</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="8"/>
+        <v>16.889999999999993</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="9"/>
+        <v>11.559999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
@@ -2221,8 +2510,19 @@
         <f t="shared" si="6"/>
         <v>49.582000000000008</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>34.924000000000007</v>
+      </c>
+      <c r="P19">
+        <v>34.923999999999999</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="9"/>
+        <v>29.594000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
@@ -2272,8 +2572,20 @@
         <f t="shared" si="6"/>
         <v>112.58200000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <f t="shared" si="7"/>
+        <v>97.924000000000007</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="8"/>
+        <v>45.494000000000007</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="9"/>
+        <v>40.164000000000009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="1" t="s">
         <v>11</v>
@@ -2321,8 +2633,20 @@
         <f t="shared" si="6"/>
         <v>49.582000000000008</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>34.924000000000007</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="8"/>
+        <v>-17.505999999999993</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="9"/>
+        <v>-22.835999999999991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="1" t="s">
         <v>12</v>
@@ -2370,8 +2694,20 @@
         <f t="shared" si="6"/>
         <v>49.582000000000008</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <f t="shared" si="7"/>
+        <v>34.924000000000007</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="8"/>
+        <v>-17.505999999999993</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="9"/>
+        <v>-22.835999999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="1" t="s">
         <v>26</v>
@@ -2419,8 +2755,20 @@
         <f t="shared" si="6"/>
         <v>49.582000000000008</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O23">
+        <f t="shared" si="7"/>
+        <v>34.924000000000007</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="8"/>
+        <v>-17.505999999999993</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="9"/>
+        <v>-22.835999999999991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>34</v>
       </c>
@@ -2470,8 +2818,20 @@
         <f t="shared" si="6"/>
         <v>59.981999999999985</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <f t="shared" si="7"/>
+        <v>45.323999999999984</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="8"/>
+        <v>-7.1060000000000159</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="9"/>
+        <v>-12.436000000000016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="1" t="s">
         <v>14</v>
@@ -2519,8 +2879,19 @@
         <f t="shared" si="6"/>
         <v>94.378</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O25">
+        <f t="shared" si="7"/>
+        <v>79.72</v>
+      </c>
+      <c r="P25">
+        <v>79.72</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="9"/>
+        <v>74.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="1" t="s">
         <v>15</v>
@@ -2568,8 +2939,20 @@
         <f t="shared" si="6"/>
         <v>83.977999999999994</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>69.319999999999993</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="8"/>
+        <v>16.889999999999993</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="9"/>
+        <v>11.559999999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="1" t="s">
         <v>16</v>
@@ -2617,8 +3000,20 @@
         <f t="shared" si="6"/>
         <v>83.977999999999994</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O27">
+        <f t="shared" si="7"/>
+        <v>69.319999999999993</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="8"/>
+        <v>16.889999999999993</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="9"/>
+        <v>11.559999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>35</v>
       </c>
@@ -2668,8 +3063,20 @@
         <f t="shared" si="6"/>
         <v>49.582000000000008</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <f t="shared" si="7"/>
+        <v>34.924000000000007</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="8"/>
+        <v>-17.505999999999993</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="9"/>
+        <v>-22.835999999999991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="1" t="s">
         <v>25</v>
@@ -2717,8 +3124,20 @@
         <f t="shared" si="6"/>
         <v>49.582000000000008</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O29">
+        <f t="shared" si="7"/>
+        <v>34.924000000000007</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="8"/>
+        <v>-17.505999999999993</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="9"/>
+        <v>-22.835999999999991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="1" t="s">
         <v>27</v>
@@ -2766,8 +3185,20 @@
         <f t="shared" si="6"/>
         <v>49.582000000000008</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <f t="shared" si="7"/>
+        <v>34.924000000000007</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="8"/>
+        <v>-17.505999999999993</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="9"/>
+        <v>-22.835999999999991</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2810,9 +3241,18 @@
       <c r="N31">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>37</v>
+      </c>
+      <c r="P31">
+        <v>37</v>
+      </c>
+      <c r="Q31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -2852,8 +3292,17 @@
       <c r="N33" s="16">
         <v>1769.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="16">
+        <v>1344.9</v>
+      </c>
+      <c r="P33" s="16">
+        <v>-18.2</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>-172.84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2872,14 +3321,17 @@
       <c r="J34" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D39" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D40" s="15" t="s">
         <v>55</v>
       </c>
@@ -2887,7 +3339,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D41" s="15" t="s">
         <v>56</v>
       </c>
@@ -2898,7 +3350,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D42" s="15" t="s">
         <v>57</v>
       </c>
@@ -2912,7 +3364,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D43" s="15" t="s">
         <v>58</v>
       </c>
@@ -2926,7 +3378,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D44" s="15" t="s">
         <v>60</v>
       </c>
@@ -2940,7 +3392,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D45" s="15" t="s">
         <v>59</v>
       </c>
@@ -2954,7 +3406,7 @@
         <v>118.2</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D46" s="15" t="s">
         <v>61</v>
       </c>
@@ -2968,7 +3420,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D47" s="15" t="s">
         <v>62</v>
       </c>
@@ -2976,7 +3428,7 @@
         <v>1192.2</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D48" s="15" t="s">
         <v>63</v>
       </c>

--- a/生活委员事宜/班费统计/班费情况.xlsx
+++ b/生活委员事宜/班费统计/班费情况.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="83">
   <si>
     <t>队名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -877,6 +877,28 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>ren'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28人（除了季慧）充值100元</t>
+    <rPh sb="2" eb="3">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>l</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji'hui</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chong'z</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yuan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1341,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q102"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1364,10 +1386,10 @@
     <col min="15" max="15" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="46.1640625" customWidth="1"/>
     <col min="17" max="17" width="26.33203125" customWidth="1"/>
-    <col min="18" max="18" width="20.5" customWidth="1"/>
+    <col min="18" max="18" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1416,8 +1438,11 @@
       <c r="Q1" s="16" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R1" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>28</v>
       </c>
@@ -1479,8 +1504,12 @@
         <f>P2-5.33</f>
         <v>-22.835999999999991</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R2">
+        <f>Q2+100</f>
+        <v>77.164000000000016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
@@ -1540,8 +1569,12 @@
         <f t="shared" ref="Q3:Q30" si="9">P3-5.33</f>
         <v>11.559999999999993</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R3">
+        <f t="shared" ref="R3:R31" si="10">Q3+100</f>
+        <v>111.55999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
@@ -1601,8 +1634,12 @@
         <f t="shared" si="9"/>
         <v>-22.835999999999991</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R4">
+        <f t="shared" si="10"/>
+        <v>77.164000000000016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -1662,8 +1699,12 @@
         <f t="shared" si="9"/>
         <v>-22.835999999999991</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5">
+        <f t="shared" si="10"/>
+        <v>77.164000000000016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>29</v>
       </c>
@@ -1725,8 +1766,12 @@
         <f t="shared" si="9"/>
         <v>-0.83600000000002161</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6">
+        <f t="shared" si="10"/>
+        <v>99.163999999999973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -1786,8 +1831,12 @@
         <f t="shared" si="9"/>
         <v>-22.835999999999991</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7">
+        <f t="shared" si="10"/>
+        <v>77.164000000000016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -1847,8 +1896,12 @@
         <f t="shared" si="9"/>
         <v>-22.835999999999991</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8">
+        <f t="shared" si="10"/>
+        <v>77.164000000000016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -1908,8 +1961,12 @@
         <f t="shared" si="9"/>
         <v>-22.835999999999991</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9">
+        <f t="shared" si="10"/>
+        <v>77.164000000000016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>30</v>
       </c>
@@ -1971,8 +2028,12 @@
         <f t="shared" si="9"/>
         <v>-22.835999999999991</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10">
+        <f t="shared" si="10"/>
+        <v>77.164000000000016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -2032,8 +2093,12 @@
         <f t="shared" si="9"/>
         <v>-22.835999999999991</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11">
+        <f t="shared" si="10"/>
+        <v>77.164000000000016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
@@ -2093,8 +2158,12 @@
         <f t="shared" si="9"/>
         <v>-22.835999999999991</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12">
+        <f t="shared" si="10"/>
+        <v>77.164000000000016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -2153,8 +2222,12 @@
         <f t="shared" si="9"/>
         <v>-15.91100000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13">
+        <f t="shared" si="10"/>
+        <v>84.088999999999984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>31</v>
       </c>
@@ -2215,8 +2288,12 @@
         <f t="shared" si="9"/>
         <v>29.594000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14">
+        <f t="shared" si="10"/>
+        <v>129.59399999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="1" t="s">
         <v>36</v>
@@ -2276,8 +2353,12 @@
         <f t="shared" si="9"/>
         <v>-22.835999999999991</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15">
+        <f t="shared" si="10"/>
+        <v>77.164000000000016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="1" t="s">
         <v>37</v>
@@ -2337,8 +2418,12 @@
         <f t="shared" si="9"/>
         <v>-22.835999999999991</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16">
+        <f t="shared" si="10"/>
+        <v>77.164000000000016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>32</v>
       </c>
@@ -2400,8 +2485,12 @@
         <f t="shared" si="9"/>
         <v>-12.436000000000016</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R17">
+        <f t="shared" si="10"/>
+        <v>87.563999999999979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
@@ -2461,8 +2550,12 @@
         <f t="shared" si="9"/>
         <v>11.559999999999993</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R18">
+        <f t="shared" si="10"/>
+        <v>111.55999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
@@ -2521,8 +2614,12 @@
         <f t="shared" si="9"/>
         <v>29.594000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R19">
+        <f t="shared" si="10"/>
+        <v>129.59399999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
@@ -2584,8 +2681,12 @@
         <f t="shared" si="9"/>
         <v>40.164000000000009</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R20">
+        <f t="shared" si="10"/>
+        <v>140.16400000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="1" t="s">
         <v>11</v>
@@ -2645,8 +2746,12 @@
         <f t="shared" si="9"/>
         <v>-22.835999999999991</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R21">
+        <f t="shared" si="10"/>
+        <v>77.164000000000016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="1" t="s">
         <v>12</v>
@@ -2706,8 +2811,12 @@
         <f t="shared" si="9"/>
         <v>-22.835999999999991</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R22">
+        <f t="shared" si="10"/>
+        <v>77.164000000000016</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="1" t="s">
         <v>26</v>
@@ -2767,8 +2876,12 @@
         <f t="shared" si="9"/>
         <v>-22.835999999999991</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R23">
+        <f t="shared" si="10"/>
+        <v>77.164000000000016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>34</v>
       </c>
@@ -2830,8 +2943,12 @@
         <f t="shared" si="9"/>
         <v>-12.436000000000016</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R24">
+        <f t="shared" si="10"/>
+        <v>87.563999999999979</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="1" t="s">
         <v>14</v>
@@ -2890,8 +3007,11 @@
         <f t="shared" si="9"/>
         <v>74.39</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R25">
+        <v>74.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="1" t="s">
         <v>15</v>
@@ -2951,8 +3071,12 @@
         <f t="shared" si="9"/>
         <v>11.559999999999993</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R26">
+        <f t="shared" si="10"/>
+        <v>111.55999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="1" t="s">
         <v>16</v>
@@ -3012,8 +3136,12 @@
         <f t="shared" si="9"/>
         <v>11.559999999999993</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R27">
+        <f t="shared" si="10"/>
+        <v>111.55999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3203,12 @@
         <f t="shared" si="9"/>
         <v>-22.835999999999991</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R28">
+        <f t="shared" si="10"/>
+        <v>77.164000000000016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="1" t="s">
         <v>25</v>
@@ -3136,8 +3268,12 @@
         <f t="shared" si="9"/>
         <v>-22.835999999999991</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R29">
+        <f t="shared" si="10"/>
+        <v>77.164000000000016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="1" t="s">
         <v>27</v>
@@ -3197,8 +3333,12 @@
         <f t="shared" si="9"/>
         <v>-22.835999999999991</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R30">
+        <f t="shared" si="10"/>
+        <v>77.164000000000016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -3250,9 +3390,12 @@
       <c r="Q31">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -3301,8 +3444,11 @@
       <c r="Q33" s="16">
         <v>-172.84</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R33" s="16">
+        <v>2627.15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -3325,13 +3471,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D39" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D40" s="15" t="s">
         <v>55</v>
       </c>
@@ -3339,7 +3485,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D41" s="15" t="s">
         <v>56</v>
       </c>
@@ -3350,7 +3496,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D42" s="15" t="s">
         <v>57</v>
       </c>
@@ -3364,7 +3510,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D43" s="15" t="s">
         <v>58</v>
       </c>
@@ -3378,7 +3524,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D44" s="15" t="s">
         <v>60</v>
       </c>
@@ -3392,7 +3538,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D45" s="15" t="s">
         <v>59</v>
       </c>
@@ -3406,7 +3552,7 @@
         <v>118.2</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D46" s="15" t="s">
         <v>61</v>
       </c>
@@ -3420,7 +3566,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D47" s="15" t="s">
         <v>62</v>
       </c>
@@ -3428,7 +3574,7 @@
         <v>1192.2</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D48" s="15" t="s">
         <v>63</v>
       </c>

--- a/生活委员事宜/班费统计/班费情况.xlsx
+++ b/生活委员事宜/班费统计/班费情况.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
   <si>
     <t>队名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -899,6 +899,34 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>yuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十二次种子论坛（花费222，人均7.654）</t>
+    <rPh sb="0" eb="1">
+      <t>di</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>er</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong'zi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lun'tan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hua'fei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ren'jun</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1363,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R102"/>
+  <dimension ref="A1:S102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1387,9 +1415,10 @@
     <col min="16" max="16" width="46.1640625" customWidth="1"/>
     <col min="17" max="17" width="26.33203125" customWidth="1"/>
     <col min="18" max="18" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1441,8 +1470,11 @@
       <c r="R1" s="16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S1" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>28</v>
       </c>
@@ -1508,8 +1540,12 @@
         <f>Q2+100</f>
         <v>77.164000000000016</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S2">
+        <f>R2-7.654</f>
+        <v>69.510000000000019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
@@ -1570,11 +1606,15 @@
         <v>11.559999999999993</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R31" si="10">Q3+100</f>
+        <f t="shared" ref="R3:R30" si="10">Q3+100</f>
         <v>111.55999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S3">
+        <f t="shared" ref="S3:S30" si="11">R3-7.654</f>
+        <v>103.90599999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
@@ -1638,8 +1678,12 @@
         <f t="shared" si="10"/>
         <v>77.164000000000016</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S4">
+        <f t="shared" si="11"/>
+        <v>69.510000000000019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -1703,8 +1747,12 @@
         <f t="shared" si="10"/>
         <v>77.164000000000016</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S5">
+        <f t="shared" si="11"/>
+        <v>69.510000000000019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>29</v>
       </c>
@@ -1770,8 +1818,12 @@
         <f t="shared" si="10"/>
         <v>99.163999999999973</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S6">
+        <f t="shared" si="11"/>
+        <v>91.509999999999977</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -1835,8 +1887,12 @@
         <f t="shared" si="10"/>
         <v>77.164000000000016</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7">
+        <f t="shared" si="11"/>
+        <v>69.510000000000019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -1900,8 +1956,12 @@
         <f t="shared" si="10"/>
         <v>77.164000000000016</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8">
+        <f t="shared" si="11"/>
+        <v>69.510000000000019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -1965,8 +2025,12 @@
         <f t="shared" si="10"/>
         <v>77.164000000000016</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9">
+        <f t="shared" si="11"/>
+        <v>69.510000000000019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>30</v>
       </c>
@@ -2032,8 +2096,12 @@
         <f t="shared" si="10"/>
         <v>77.164000000000016</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10">
+        <f t="shared" si="11"/>
+        <v>69.510000000000019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -2097,8 +2165,12 @@
         <f t="shared" si="10"/>
         <v>77.164000000000016</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11">
+        <f t="shared" si="11"/>
+        <v>69.510000000000019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
@@ -2162,8 +2234,12 @@
         <f t="shared" si="10"/>
         <v>77.164000000000016</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12">
+        <f t="shared" si="11"/>
+        <v>69.510000000000019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -2226,8 +2302,12 @@
         <f t="shared" si="10"/>
         <v>84.088999999999984</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13">
+        <f t="shared" si="11"/>
+        <v>76.434999999999988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>31</v>
       </c>
@@ -2292,8 +2372,12 @@
         <f t="shared" si="10"/>
         <v>129.59399999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14">
+        <f t="shared" si="11"/>
+        <v>121.94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="1" t="s">
         <v>36</v>
@@ -2357,8 +2441,12 @@
         <f t="shared" si="10"/>
         <v>77.164000000000016</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S15">
+        <f t="shared" si="11"/>
+        <v>69.510000000000019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="1" t="s">
         <v>37</v>
@@ -2422,8 +2510,12 @@
         <f t="shared" si="10"/>
         <v>77.164000000000016</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16">
+        <f t="shared" si="11"/>
+        <v>69.510000000000019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>32</v>
       </c>
@@ -2489,8 +2581,12 @@
         <f t="shared" si="10"/>
         <v>87.563999999999979</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S17">
+        <f t="shared" si="11"/>
+        <v>79.909999999999982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
@@ -2554,8 +2650,12 @@
         <f t="shared" si="10"/>
         <v>111.55999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S18">
+        <f t="shared" si="11"/>
+        <v>103.90599999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
@@ -2618,8 +2718,12 @@
         <f t="shared" si="10"/>
         <v>129.59399999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S19">
+        <f t="shared" si="11"/>
+        <v>121.94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
@@ -2685,8 +2789,12 @@
         <f t="shared" si="10"/>
         <v>140.16400000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S20">
+        <f t="shared" si="11"/>
+        <v>132.51000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="1" t="s">
         <v>11</v>
@@ -2750,8 +2858,12 @@
         <f t="shared" si="10"/>
         <v>77.164000000000016</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S21">
+        <f t="shared" si="11"/>
+        <v>69.510000000000019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="1" t="s">
         <v>12</v>
@@ -2815,8 +2927,12 @@
         <f t="shared" si="10"/>
         <v>77.164000000000016</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S22">
+        <f t="shared" si="11"/>
+        <v>69.510000000000019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="1" t="s">
         <v>26</v>
@@ -2880,8 +2996,12 @@
         <f t="shared" si="10"/>
         <v>77.164000000000016</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S23">
+        <f t="shared" si="11"/>
+        <v>69.510000000000019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>34</v>
       </c>
@@ -2947,8 +3067,12 @@
         <f t="shared" si="10"/>
         <v>87.563999999999979</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S24">
+        <f t="shared" si="11"/>
+        <v>79.909999999999982</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="1" t="s">
         <v>14</v>
@@ -3010,8 +3134,12 @@
       <c r="R25">
         <v>74.39</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S25">
+        <f t="shared" si="11"/>
+        <v>66.736000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="1" t="s">
         <v>15</v>
@@ -3075,8 +3203,12 @@
         <f t="shared" si="10"/>
         <v>111.55999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S26">
+        <f t="shared" si="11"/>
+        <v>103.90599999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="1" t="s">
         <v>16</v>
@@ -3140,8 +3272,12 @@
         <f t="shared" si="10"/>
         <v>111.55999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S27">
+        <f t="shared" si="11"/>
+        <v>103.90599999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>35</v>
       </c>
@@ -3207,8 +3343,12 @@
         <f t="shared" si="10"/>
         <v>77.164000000000016</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S28">
+        <f t="shared" si="11"/>
+        <v>69.510000000000019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="1" t="s">
         <v>25</v>
@@ -3272,8 +3412,12 @@
         <f t="shared" si="10"/>
         <v>77.164000000000016</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S29">
+        <f t="shared" si="11"/>
+        <v>69.510000000000019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="1" t="s">
         <v>27</v>
@@ -3337,8 +3481,12 @@
         <f t="shared" si="10"/>
         <v>77.164000000000016</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S30">
+        <f t="shared" si="11"/>
+        <v>69.510000000000019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -3393,9 +3541,12 @@
       <c r="R31">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -3447,8 +3598,11 @@
       <c r="R33" s="16">
         <v>2627.15</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S33" s="16">
+        <v>2405.15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -3471,13 +3625,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D39" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D40" s="15" t="s">
         <v>55</v>
       </c>
@@ -3485,7 +3639,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D41" s="15" t="s">
         <v>56</v>
       </c>
@@ -3496,7 +3650,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D42" s="15" t="s">
         <v>57</v>
       </c>
@@ -3510,7 +3664,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D43" s="15" t="s">
         <v>58</v>
       </c>
@@ -3524,7 +3678,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D44" s="15" t="s">
         <v>60</v>
       </c>
@@ -3538,7 +3692,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D45" s="15" t="s">
         <v>59</v>
       </c>
@@ -3552,7 +3706,7 @@
         <v>118.2</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D46" s="15" t="s">
         <v>61</v>
       </c>
@@ -3566,7 +3720,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D47" s="15" t="s">
         <v>62</v>
       </c>
@@ -3574,7 +3728,7 @@
         <v>1192.2</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D48" s="15" t="s">
         <v>63</v>
       </c>

--- a/生活委员事宜/班费统计/班费情况.xlsx
+++ b/生活委员事宜/班费统计/班费情况.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
   <si>
     <t>队名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -927,6 +927,28 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>ren'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批判思维课本301.6元，人均10.38元</t>
+    <rPh sb="0" eb="1">
+      <t>pi'pan'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>si'wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ke'ben</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ren'jun</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yuna</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1391,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S102"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="E78" sqref="D78:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1416,9 +1438,11 @@
     <col min="17" max="17" width="26.33203125" customWidth="1"/>
     <col min="18" max="18" width="24.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="35.6640625" customWidth="1"/>
+    <col min="20" max="20" width="32.33203125" customWidth="1"/>
+    <col min="21" max="21" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1473,8 +1497,11 @@
       <c r="S1" s="16" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T1" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>28</v>
       </c>
@@ -1544,8 +1571,12 @@
         <f>R2-7.654</f>
         <v>69.510000000000019</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T2">
+        <f>S2-10.38</f>
+        <v>59.130000000000017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
@@ -1610,11 +1641,15 @@
         <v>111.55999999999999</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S30" si="11">R3-7.654</f>
+        <f t="shared" ref="S3:T30" si="11">R3-7.654</f>
         <v>103.90599999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T3">
+        <f t="shared" si="11"/>
+        <v>96.251999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>18</v>
@@ -1682,8 +1717,12 @@
         <f t="shared" si="11"/>
         <v>69.510000000000019</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T4">
+        <f t="shared" si="11"/>
+        <v>61.856000000000023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -1751,8 +1790,12 @@
         <f t="shared" si="11"/>
         <v>69.510000000000019</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T5">
+        <f t="shared" si="11"/>
+        <v>61.856000000000023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>29</v>
       </c>
@@ -1822,8 +1865,12 @@
         <f t="shared" si="11"/>
         <v>91.509999999999977</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T6">
+        <f t="shared" si="11"/>
+        <v>83.85599999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -1891,8 +1938,12 @@
         <f t="shared" si="11"/>
         <v>69.510000000000019</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T7">
+        <f t="shared" si="11"/>
+        <v>61.856000000000023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -1960,8 +2011,12 @@
         <f t="shared" si="11"/>
         <v>69.510000000000019</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T8">
+        <f t="shared" si="11"/>
+        <v>61.856000000000023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -2029,8 +2084,12 @@
         <f t="shared" si="11"/>
         <v>69.510000000000019</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T9">
+        <f t="shared" si="11"/>
+        <v>61.856000000000023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>30</v>
       </c>
@@ -2100,8 +2159,12 @@
         <f t="shared" si="11"/>
         <v>69.510000000000019</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T10">
+        <f t="shared" si="11"/>
+        <v>61.856000000000023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -2169,8 +2232,12 @@
         <f t="shared" si="11"/>
         <v>69.510000000000019</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T11">
+        <f t="shared" si="11"/>
+        <v>61.856000000000023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="1" t="s">
         <v>4</v>
@@ -2238,8 +2305,12 @@
         <f t="shared" si="11"/>
         <v>69.510000000000019</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T12">
+        <f t="shared" si="11"/>
+        <v>61.856000000000023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -2306,8 +2377,12 @@
         <f t="shared" si="11"/>
         <v>76.434999999999988</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T13">
+        <f t="shared" si="11"/>
+        <v>68.780999999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>31</v>
       </c>
@@ -2376,8 +2451,12 @@
         <f t="shared" si="11"/>
         <v>121.94</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T14">
+        <f t="shared" si="11"/>
+        <v>114.286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="1" t="s">
         <v>36</v>
@@ -2445,8 +2524,12 @@
         <f t="shared" si="11"/>
         <v>69.510000000000019</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T15">
+        <f t="shared" si="11"/>
+        <v>61.856000000000023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="1" t="s">
         <v>37</v>
@@ -2514,8 +2597,12 @@
         <f t="shared" si="11"/>
         <v>69.510000000000019</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T16">
+        <f t="shared" si="11"/>
+        <v>61.856000000000023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>32</v>
       </c>
@@ -2585,8 +2672,12 @@
         <f t="shared" si="11"/>
         <v>79.909999999999982</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T17">
+        <f t="shared" si="11"/>
+        <v>72.255999999999986</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
@@ -2654,8 +2745,12 @@
         <f t="shared" si="11"/>
         <v>103.90599999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T18">
+        <f t="shared" si="11"/>
+        <v>96.251999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
@@ -2722,8 +2817,12 @@
         <f t="shared" si="11"/>
         <v>121.94</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T19">
+        <f t="shared" si="11"/>
+        <v>114.286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
@@ -2793,8 +2892,12 @@
         <f t="shared" si="11"/>
         <v>132.51000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T20">
+        <f t="shared" si="11"/>
+        <v>124.85600000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="1" t="s">
         <v>11</v>
@@ -2862,8 +2965,12 @@
         <f t="shared" si="11"/>
         <v>69.510000000000019</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T21">
+        <f t="shared" si="11"/>
+        <v>61.856000000000023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="1" t="s">
         <v>12</v>
@@ -2931,8 +3038,12 @@
         <f t="shared" si="11"/>
         <v>69.510000000000019</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T22">
+        <f t="shared" si="11"/>
+        <v>61.856000000000023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="1" t="s">
         <v>26</v>
@@ -3000,8 +3111,12 @@
         <f t="shared" si="11"/>
         <v>69.510000000000019</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T23">
+        <f t="shared" si="11"/>
+        <v>61.856000000000023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>34</v>
       </c>
@@ -3071,8 +3186,12 @@
         <f t="shared" si="11"/>
         <v>79.909999999999982</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T24">
+        <f t="shared" si="11"/>
+        <v>72.255999999999986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="1" t="s">
         <v>14</v>
@@ -3138,8 +3257,12 @@
         <f t="shared" si="11"/>
         <v>66.736000000000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T25">
+        <f t="shared" si="11"/>
+        <v>59.082000000000008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="1" t="s">
         <v>15</v>
@@ -3207,8 +3330,12 @@
         <f t="shared" si="11"/>
         <v>103.90599999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T26">
+        <f t="shared" si="11"/>
+        <v>96.251999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="1" t="s">
         <v>16</v>
@@ -3276,8 +3403,12 @@
         <f t="shared" si="11"/>
         <v>103.90599999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T27">
+        <f t="shared" si="11"/>
+        <v>96.251999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>35</v>
       </c>
@@ -3347,8 +3478,12 @@
         <f t="shared" si="11"/>
         <v>69.510000000000019</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T28">
+        <f t="shared" si="11"/>
+        <v>61.856000000000023</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="1" t="s">
         <v>25</v>
@@ -3416,8 +3551,12 @@
         <f t="shared" si="11"/>
         <v>69.510000000000019</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T29">
+        <f t="shared" si="11"/>
+        <v>61.856000000000023</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="1" t="s">
         <v>27</v>
@@ -3485,8 +3624,12 @@
         <f t="shared" si="11"/>
         <v>69.510000000000019</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T30">
+        <f t="shared" si="11"/>
+        <v>61.856000000000023</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -3544,9 +3687,12 @@
       <c r="S31">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -3601,8 +3747,11 @@
       <c r="S33" s="16">
         <v>2405.15</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T33" s="16">
+        <v>2103.5500000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -3625,13 +3774,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D39" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D40" s="15" t="s">
         <v>55</v>
       </c>
@@ -3639,7 +3788,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D41" s="15" t="s">
         <v>56</v>
       </c>
@@ -3650,7 +3799,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D42" s="15" t="s">
         <v>57</v>
       </c>
@@ -3664,7 +3813,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D43" s="15" t="s">
         <v>58</v>
       </c>
@@ -3678,7 +3827,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D44" s="15" t="s">
         <v>60</v>
       </c>
@@ -3692,7 +3841,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D45" s="15" t="s">
         <v>59</v>
       </c>
@@ -3706,7 +3855,7 @@
         <v>118.2</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D46" s="15" t="s">
         <v>61</v>
       </c>
@@ -3720,7 +3869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D47" s="15" t="s">
         <v>62</v>
       </c>
@@ -3728,7 +3877,7 @@
         <v>1192.2</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D48" s="15" t="s">
         <v>63</v>
       </c>
